--- a/5sem/55/tables/com.xlsx
+++ b/5sem/55/tables/com.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1360" windowWidth="24960" windowHeight="11500" tabRatio="500"/>
+    <workbookView xWindow="8180" yWindow="4320" windowWidth="24960" windowHeight="11500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>у</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,6 +62,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,10 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -356,20 +372,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -379,42 +404,63 @@
       <c r="C2" s="1">
         <v>190</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>16.9864360057604</v>
+      </c>
+      <c r="E2">
+        <f>0.0317*C2</f>
+        <v>6.0229999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>661.5</v>
       </c>
       <c r="C3" s="1">
         <v>205</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>19.109740506480399</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">0.0317*C3</f>
+        <v>6.4984999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1328.0997520000001</v>
       </c>
       <c r="C4" s="1">
         <v>230</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3">
+        <v>29.7262630100807</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7.2909999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>129.9734819</v>
       </c>
       <c r="C5" s="1">
         <v>95</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>343.1717605</v>
-      </c>
-      <c r="C6" s="1">
-        <v>170</v>
-      </c>
+      <c r="D5" s="3">
+        <v>4.96853253168491</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.0114999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
